--- a/data/trans_bre/IP04F-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP04F-Edad-trans_bre.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">

--- a/data/trans_bre/IP04F-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP04F-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -63,13 +63,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -504,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,8 +514,6 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -538,14 +529,12 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -562,22 +551,12 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
           <t>2016</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -588,8 +567,6 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,32%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+          <t>16,18%</t>
         </is>
       </c>
     </row>
@@ -642,32 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,16; 3,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,72; 5,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,68; 89,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-47,62; 169,74</t>
         </is>
       </c>
     </row>
@@ -684,32 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>37,97%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+          <t>54,45%</t>
         </is>
       </c>
     </row>
@@ -722,32 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,19; 7,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,31; 8,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,5; 128,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-6,89; 164,52</t>
         </is>
       </c>
     </row>
@@ -764,32 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+          <t>-23,32%</t>
         </is>
       </c>
     </row>
@@ -802,32 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,38; 7,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,14; 2,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,02; 83,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-60,49; 50,22</t>
         </is>
       </c>
     </row>
@@ -844,32 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+          <t>9,37%</t>
         </is>
       </c>
     </row>
@@ -882,32 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,33; 7,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,46; 6,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,73; 89,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-34,68; 84,43</t>
         </is>
       </c>
     </row>
@@ -924,32 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,8%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+          <t>14,02%</t>
         </is>
       </c>
     </row>
@@ -962,32 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 3,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,27; 3,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,63; 52,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-14,68; 54,23</t>
         </is>
       </c>
     </row>
@@ -1000,11 +877,11 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
